--- a/Notes/MCMC/Examples/Cell Phone.xlsx
+++ b/Notes/MCMC/Examples/Cell Phone.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28702"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/opt/SCHAS/git/Notebooks/Notes/MCMC/Examples/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="405" yWindow="300" windowWidth="15660" windowHeight="9600" activeTab="2"/>
+    <workbookView xWindow="400" yWindow="460" windowWidth="20500" windowHeight="15940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -35,7 +40,15 @@
     <definedName name="CBx_StorageType" localSheetId="1" hidden="1">2</definedName>
     <definedName name="CBx_StorageType" localSheetId="2" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -101,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>Deciding on a Monthly Cell Phone Plan</t>
   </si>
@@ -342,6 +355,18 @@
   <si>
     <t>Crystal Ball Team</t>
   </si>
+  <si>
+    <t>::PROB::D11::Normal::{mu: 400, sd:20}</t>
+  </si>
+  <si>
+    <t>::PROB::D12::Triangular::l::{1:.1, h:.4,m:.3}</t>
+  </si>
+  <si>
+    <t>::PROB::D10:Pyms3.</t>
+  </si>
+  <si>
+    <t>::DETR::D14::ROIFunction()</t>
+  </si>
 </sst>
 </file>
 
@@ -353,7 +378,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -463,6 +488,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="206"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -657,7 +694,7 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -764,6 +801,8 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
@@ -1305,117 +1344,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1">
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="B1:B47"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="83.5703125" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="8.83203125" style="2"/>
+    <col min="2" max="2" width="83.5" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" ht="60" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" ht="45" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" s="11"/>
     </row>
-    <row r="15" spans="2:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" ht="45" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
     </row>
-    <row r="17" spans="2:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" ht="45" x14ac:dyDescent="0.2">
       <c r="B17" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" ht="90" x14ac:dyDescent="0.2">
       <c r="B19" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" ht="75" x14ac:dyDescent="0.2">
       <c r="B22" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" ht="75" x14ac:dyDescent="0.2">
       <c r="B24" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" ht="75" x14ac:dyDescent="0.2">
       <c r="B26" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" ht="45" x14ac:dyDescent="0.2">
       <c r="B28" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" ht="45" x14ac:dyDescent="0.2">
       <c r="B30" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" ht="75" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="13"/>
     </row>
   </sheetData>
@@ -1428,22 +1467,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="36.7109375" customWidth="1"/>
+    <col min="1" max="2" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1454,17 +1493,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1472,17 +1511,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="e">
         <f>CB_DATA_!#REF!</f>
         <v>#REF!</v>
@@ -1492,12 +1531,12 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1505,17 +1544,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>28</v>
       </c>
@@ -1523,12 +1562,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>36</v>
       </c>
@@ -1536,7 +1575,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -1544,7 +1583,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
         <v>37</v>
       </c>
@@ -1552,17 +1591,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B29" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B31" s="10" t="s">
         <v>37</v>
       </c>
@@ -1576,24 +1615,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="2" customWidth="1"/>
-    <col min="6" max="8" width="10.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="7.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="10.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="42" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1601,12 +1642,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="2:9" s="18" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" s="18" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="15"/>
       <c r="C3" s="17" t="s">
         <v>1</v>
@@ -1614,8 +1655,11 @@
       <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="32" t="s">
         <v>3</v>
       </c>
@@ -1625,8 +1669,11 @@
       <c r="D4" s="33">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="32" t="s">
         <v>4</v>
       </c>
@@ -1636,8 +1683,11 @@
       <c r="D5" s="34" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="32" t="s">
         <v>6</v>
       </c>
@@ -1648,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="32" t="s">
         <v>7</v>
       </c>
@@ -1659,7 +1709,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="37" t="s">
         <v>8</v>
       </c>
@@ -1672,7 +1722,7 @@
         <v>44.6</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="39" t="s">
         <v>49</v>
       </c>
@@ -1680,7 +1730,7 @@
       <c r="H9" s="39"/>
       <c r="I9" s="39"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D10" s="38" t="s">
         <v>55</v>
       </c>
@@ -1697,7 +1747,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
       <c r="C11" s="21" t="s">
         <v>9</v>
@@ -1716,7 +1766,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="21" t="s">
         <v>10</v>
@@ -1737,7 +1787,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1746,10 +1796,10 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
@@ -1757,6 +1807,9 @@
       <c r="D15" s="8">
         <f>D8-C8</f>
         <v>4.6099999999999994</v>
+      </c>
+      <c r="I15" s="41" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Notes/MCMC/Examples/Cell Phone.xlsx
+++ b/Notes/MCMC/Examples/Cell Phone.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="400" yWindow="460" windowWidth="20500" windowHeight="15940" activeTab="2"/>
+    <workbookView xWindow="400" yWindow="460" windowWidth="25140" windowHeight="15940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
-    <sheet name="CB_DATA_" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="CB_DATA_" sheetId="3" r:id="rId2"/>
     <sheet name="Model" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -356,16 +356,16 @@
     <t>Crystal Ball Team</t>
   </si>
   <si>
-    <t>::PROB::D11::Normal::{mu: 400, sd:20}</t>
-  </si>
-  <si>
-    <t>::PROB::D12::Triangular::l::{1:.1, h:.4,m:.3}</t>
-  </si>
-  <si>
     <t>::PROB::D10:Pyms3.</t>
   </si>
   <si>
-    <t>::DETR::D14::ROIFunction()</t>
+    <t>D11 = pymc3.Normal("Market Penetration",mu=400, sd=20)</t>
+  </si>
+  <si>
+    <t>D12 = pymc3.Triangular("s", lower=.1 upper=.2,  median=0.4)</t>
+  </si>
+  <si>
+    <t>pymc3.Deterministic("Cost Savings",  B15())</t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -499,6 +499,27 @@
       <color rgb="FF000000"/>
       <name val="Lucida Grande"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF006E32"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -556,7 +577,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -686,15 +707,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -803,10 +841,18 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1619,7 +1665,7 @@
   <dimension ref="B1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1630,7 +1676,7 @@
     <col min="4" max="4" width="16.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" style="2" customWidth="1"/>
     <col min="6" max="8" width="10.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="42" style="2" customWidth="1"/>
+    <col min="9" max="9" width="61.6640625" style="2" customWidth="1"/>
     <col min="10" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -1647,7 +1693,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="2:9" s="18" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" s="18" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15"/>
       <c r="C3" s="17" t="s">
         <v>1</v>
@@ -1655,8 +1701,8 @@
       <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="18" t="s">
-        <v>59</v>
+      <c r="I3" s="43" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1669,11 +1715,9 @@
       <c r="D4" s="33">
         <v>35</v>
       </c>
-      <c r="I4" s="40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="32" t="s">
         <v>4</v>
       </c>
@@ -1683,11 +1727,11 @@
       <c r="D5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="42" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="32" t="s">
         <v>6</v>
       </c>
@@ -1696,6 +1740,9 @@
       </c>
       <c r="D6" s="35">
         <v>0</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1809,7 +1856,7 @@
         <v>4.6099999999999994</v>
       </c>
       <c r="I15" s="41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
